--- a/data/trans_bre/MCS12_SP_R3-Clase-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R3-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 10,69</t>
+          <t>-0,84; 11,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 12,62</t>
+          <t>-0,33; 12,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 6,79</t>
+          <t>-5,57; 6,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 9,57</t>
+          <t>-0,09; 9,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 69,91</t>
+          <t>-4,62; 72,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 86,21</t>
+          <t>-2,84; 87,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,74; 47,92</t>
+          <t>-26,73; 41,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 60,48</t>
+          <t>-0,51; 59,84</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 17,16</t>
+          <t>5,24; 16,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,36; 19,44</t>
+          <t>4,7; 19,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 13,5</t>
+          <t>1,58; 13,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 13,92</t>
+          <t>3,43; 13,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,3; 151,56</t>
+          <t>28,86; 139,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,15; 110,11</t>
+          <t>20,42; 112,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,98; 94,8</t>
+          <t>8,3; 101,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,09; 101,72</t>
+          <t>19,27; 102,83</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 16,06</t>
+          <t>-1,76; 14,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 16,54</t>
+          <t>1,99; 16,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 17,65</t>
+          <t>1,74; 18,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 24,59</t>
+          <t>0,13; 22,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 100,35</t>
+          <t>-7,77; 86,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,8; 69,58</t>
+          <t>6,88; 72,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 89,75</t>
+          <t>6,75; 92,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 392,92</t>
+          <t>-0,38; 388,16</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,03</t>
+          <t>0,89; 8,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 9,76</t>
+          <t>1,75; 10,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 10,59</t>
+          <t>2,81; 10,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 49,88</t>
+          <t>2,69; 47,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 44,36</t>
+          <t>3,18; 42,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 42,91</t>
+          <t>6,67; 44,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,11; 57,97</t>
+          <t>13,06; 59,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,83; 256,58</t>
+          <t>12,1; 243,25</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,07; 14,99</t>
+          <t>3,78; 15,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,53; 20,95</t>
+          <t>10,61; 21,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,17; 19,14</t>
+          <t>9,61; 18,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 11,8</t>
+          <t>-2,04; 11,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,55; 88,18</t>
+          <t>15,6; 97,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,76; 102,2</t>
+          <t>41,3; 108,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,12; 106,07</t>
+          <t>41,43; 103,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 58,23</t>
+          <t>-7,2; 58,42</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,83; 19,18</t>
+          <t>9,94; 18,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,24; 22,21</t>
+          <t>11,61; 21,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,87; 18,04</t>
+          <t>8,95; 17,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,92; 24,5</t>
+          <t>13,22; 24,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>63,39; 224,22</t>
+          <t>65,24; 209,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>55,94; 188,14</t>
+          <t>55,75; 180,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>60,4; 230,19</t>
+          <t>63,82; 238,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>82,89; 434,19</t>
+          <t>84,7; 437,03</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,88; 9,91</t>
+          <t>5,82; 9,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,28; 12,43</t>
+          <t>8,23; 12,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,88</t>
+          <t>5,89; 10,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,22; 28,02</t>
+          <t>7,09; 28,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,3; 56,67</t>
+          <t>30,08; 55,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,08; 58,78</t>
+          <t>35,09; 59,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,04; 55,2</t>
+          <t>29,19; 56,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>36,91; 160,97</t>
+          <t>35,81; 160,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/MCS12_SP_R3-Clase-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R3-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
